--- a/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ IS _ 4 yr.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ IS _ 4 yr.xlsx
@@ -20,28 +20,28 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1992-1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2023</t>
+    <t xml:space="preserve">1991-1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995-1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -413,28 +413,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E2" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" t="n">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="G2" t="n">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="H2" t="n">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="I2" t="n">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
@@ -442,28 +442,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F3" t="n">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="G3" t="n">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="H3" t="n">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="I3" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -514,28 +514,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="F2" t="n">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G2" t="n">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="H2" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I2" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="F3" t="n">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G3" t="n">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="H3" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I3" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -615,28 +615,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="F2" t="n">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="G2" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
@@ -644,28 +644,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F3" t="n">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G3" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I3" t="n">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -716,28 +716,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="G2" t="n">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="H2" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I2" t="n">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -745,28 +745,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="G3" t="n">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="H3" t="n">
         <v>138</v>
       </c>
       <c r="I3" t="n">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
